--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1556,8 +1556,8 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -1672,8 +1672,8 @@
       <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
@@ -1701,8 +1701,8 @@
       <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>200</v>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
@@ -1747,8 +1747,8 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1759,8 +1759,8 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -1788,8 +1788,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
-        <v>100</v>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -1875,8 +1875,8 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -1933,8 +1933,8 @@
       <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>300</v>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
@@ -1988,8 +1988,8 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -2046,8 +2046,8 @@
       <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>100</v>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
@@ -2075,8 +2075,8 @@
       <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
-        <v>300</v>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
@@ -2133,8 +2133,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -2249,8 +2249,8 @@
       <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
-        <v>300</v>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
@@ -2407,8 +2407,8 @@
       <c r="I72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
-        <v>-1000</v>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
@@ -2523,8 +2523,8 @@
       <c r="I76" s="3">
         <v>0</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
+      <c r="J76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -1553,8 +1553,8 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -1669,8 +1669,8 @@
       <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
@@ -1698,8 +1698,8 @@
       <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
@@ -1747,11 +1747,11 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -1785,8 +1785,8 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -1872,8 +1872,8 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -1930,8 +1930,8 @@
       <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
-        <v>300</v>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
@@ -1985,8 +1985,8 @@
       <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -2043,8 +2043,8 @@
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2072,8 +2072,8 @@
       <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>200</v>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
@@ -2130,8 +2130,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2246,8 +2246,8 @@
       <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
@@ -2404,8 +2404,8 @@
       <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-900</v>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
@@ -2520,8 +2520,8 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,55 +964,59 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,20 +1042,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1052,14 +1089,14 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1116,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1087,35 +1127,38 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1125,28 +1168,31 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,26 +1232,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1212,26 +1264,29 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,20 +1424,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1386,26 +1456,29 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,26 +1520,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1542,7 +1629,7 @@
         <v>1200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1562,17 +1649,20 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1591,25 +1681,28 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,16 +1745,19 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -1678,16 +1777,19 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E46" s="3">
         <v>2900</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,16 +1841,19 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -1765,16 +1873,19 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E49" s="3">
         <v>4700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,16 +2033,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,16 +2095,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -1994,16 +2125,19 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
@@ -2023,16 +2157,19 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
         <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -2052,16 +2189,19 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -2081,17 +2221,20 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,16 +2253,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
+      <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2381,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2555,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1000</v>
       </c>
       <c r="F72" s="3">
         <v>-1000</v>
@@ -2402,7 +2576,7 @@
         <v>-1000</v>
       </c>
       <c r="H72" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,60 +2747,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2648,14 +2847,14 @@
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2822,14 +3039,14 @@
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3109,14 +3355,14 @@
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3167,19 +3419,22 @@
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,63 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,31 +729,34 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,31 +764,34 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,31 +799,34 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,26 +907,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,61 +991,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,14 +1086,14 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1075,13 +1109,16 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-3000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1092,14 +1129,14 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1119,7 +1159,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1130,38 +1170,41 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1171,22 +1214,25 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
@@ -1194,8 +1240,8 @@
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,29 +1284,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1267,29 +1319,32 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,14 +1506,14 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1459,29 +1529,32 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,29 +1599,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,19 +1706,20 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1652,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1661,11 +1751,11 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
+        <v>400</v>
+      </c>
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1774,11 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1693,11 +1786,11 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1844,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1759,8 +1858,8 @@
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
-        <v>200</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -1780,19 +1879,22 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1853,16 +1961,16 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -1876,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,10 +1996,10 @@
         <v>5300</v>
       </c>
       <c r="E49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,19 +2089,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,19 +2159,22 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,10 +2236,10 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2128,19 +2259,22 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -2160,19 +2294,22 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="3">
         <v>100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2192,8 +2329,11 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2201,10 +2341,10 @@
         <v>1800</v>
       </c>
       <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2224,20 +2364,23 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2256,19 +2399,22 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,19 +2539,22 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,19 +2729,22 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1000</v>
       </c>
       <c r="G72" s="3">
         <v>-1000</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2869,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,66 +2939,72 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,13 +3031,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -2850,14 +3049,14 @@
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,13 +3239,16 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>-900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -3042,14 +3259,14 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3291,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3394,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,13 +3584,16 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -3358,14 +3604,14 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3373,8 +3619,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,13 +3654,16 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -3422,19 +3674,22 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,70 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,34 +736,40 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,31 +780,37 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,34 +818,40 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +865,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +902,14 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +943,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -945,8 +984,14 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1025,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1043,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1001,34 +1054,40 @@
         <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,34 +1095,40 @@
         <v>-2700</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,29 +1142,31 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1112,43 +1179,55 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1162,10 +1241,10 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1173,52 +1252,64 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,34 +1317,40 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,29 +1630,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1532,43 +1671,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1878,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -1742,8 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1751,17 +1930,17 @@
         <v>400</v>
       </c>
       <c r="E42" s="3">
+        <v>200</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
+        <v>400</v>
+      </c>
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1777,26 +1956,32 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1812,8 +1997,14 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +2038,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1861,15 +2058,15 @@
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1882,29 +2079,35 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1917,8 +2120,14 @@
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2161,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,10 +2179,10 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1987,29 +2202,35 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>5300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3">
-        <v>100</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2022,8 +2243,14 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,28 +2325,34 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -2127,8 +2366,14 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2407,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2197,8 +2448,14 @@
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2486,31 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2262,8 +2523,14 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,17 +2538,17 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2297,29 +2564,35 @@
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2332,29 +2605,35 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
-        <v>200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2367,26 +2646,32 @@
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2402,8 +2687,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,18 +2704,18 @@
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2437,8 +2728,14 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2851,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
-        <v>300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2577,8 +2892,14 @@
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +3073,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2767,8 +3114,14 @@
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,28 +3237,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
@@ -2907,8 +3278,14 @@
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3427,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -3052,8 +3449,8 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3061,14 +3458,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,28 +3669,34 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
@@ -3271,14 +3704,20 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3731,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,19 +3850,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -3417,8 +3876,8 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -3426,14 +3885,20 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +4072,55 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,19 +4154,25 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>5</v>
@@ -3677,19 +4180,25 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41364</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,40 +740,43 @@
         <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>300</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,31 +793,34 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,40 +828,43 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,35 +966,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,79 +1071,83 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,16 +1177,17 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1162,14 +1196,14 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1185,23 +1219,26 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1211,14 +1248,14 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1247,7 +1287,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1258,47 +1298,50 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1351,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1323,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
@@ -1340,8 +1386,8 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1431,38 +1483,41 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,16 +1703,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -1654,14 +1724,14 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1677,38 +1747,41 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1835,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1879,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41364</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +1966,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1889,19 +1976,19 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
@@ -1921,29 +2008,32 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200</v>
-      </c>
-      <c r="F42" s="3">
-        <v>400</v>
       </c>
       <c r="G42" s="3">
         <v>400</v>
       </c>
       <c r="H42" s="3">
+        <v>400</v>
+      </c>
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,31 +2140,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1700</v>
       </c>
       <c r="F46" s="3">
         <v>1700</v>
       </c>
       <c r="G46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2272,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2185,10 +2293,10 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2220,17 +2331,17 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>5300</v>
+        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>5300</v>
       </c>
       <c r="H49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I49" s="3">
         <v>4700</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,13 +2448,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2348,14 +2468,14 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="I54" s="3">
-        <v>300</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
       </c>
       <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,13 +2660,16 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>4400</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2544,13 +2678,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1800</v>
       </c>
       <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,13 +2836,16 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2710,11 +2856,11 @@
       <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4600</v>
       </c>
       <c r="F66" s="3">
         <v>4600</v>
       </c>
       <c r="G66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-19000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,84 +3514,90 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41364</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3438,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3455,14 +3654,14 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,23 +3889,26 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3701,14 +3918,14 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3759,14 +3980,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,22 +4083,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -3882,14 +4112,14 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,23 +4321,26 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4104,14 +4350,14 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,23 +4409,26 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4186,19 +4438,22 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OHCS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>OHCS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41455</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41364</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,75 +803,81 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,38 +986,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,85 +1098,89 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,10 +1221,10 @@
         <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1199,14 +1233,14 @@
         <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1222,26 +1256,29 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1251,14 +1288,14 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +1330,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1301,50 +1341,53 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1397,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
@@ -1389,8 +1435,8 @@
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,41 +1491,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1486,41 +1538,44 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1585,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,10 +1785,10 @@
         <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -1727,14 +1797,14 @@
         <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1750,41 +1820,44 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1867,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,41 +1914,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +1961,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41455</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41364</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1979,19 +2066,19 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1200</v>
       </c>
       <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
+      <c r="J41" s="3">
+        <v>1200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,23 +2110,23 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>400</v>
       </c>
       <c r="H42" s="3">
         <v>400</v>
       </c>
       <c r="I42" s="3">
+        <v>400</v>
+      </c>
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2055,32 +2145,35 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,31 +2192,34 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2169,8 +2268,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -2187,32 +2286,35 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1700</v>
       </c>
       <c r="G46" s="3">
         <v>1700</v>
       </c>
       <c r="H46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2296,10 +2404,10 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,17 +2445,17 @@
         <v>800</v>
       </c>
       <c r="G49" s="3">
-        <v>5300</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>5300</v>
       </c>
       <c r="I49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J49" s="3">
         <v>4700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,8 +2597,8 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2662,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,23 +2759,23 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
       </c>
       <c r="H57" s="3">
         <v>1600</v>
       </c>
       <c r="I57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,16 +2794,19 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>4400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2681,13 +2815,13 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2707,28 +2841,31 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="I59" s="3">
+        <v>100</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
@@ -2751,32 +2888,35 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1800</v>
       </c>
       <c r="I60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,23 +2947,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,16 +2982,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2859,8 +3005,8 @@
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3170,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4600</v>
       </c>
       <c r="G66" s="3">
         <v>4600</v>
       </c>
       <c r="H66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3424,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-19000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3612,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,90 +3706,96 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41455</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41364</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41274</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3805,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3657,14 +3856,14 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,26 +4106,29 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3921,14 +4138,14 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3983,14 +4204,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4313,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -4115,14 +4345,14 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,26 +4567,29 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4353,14 +4599,14 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4661,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,17 +4673,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4441,19 +4693,22 @@
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
